--- a/src/build/Data.xlsx
+++ b/src/build/Data.xlsx
@@ -11,17 +11,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>TSP</t>
-  </si>
-  <si>
-    <t>Custom Slime Mold 1</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -329,32 +318,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:8">
       <c r="B1">
-        <v>1354</v>
+        <v>872</v>
       </c>
       <c r="C1">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
+        <v>1222</v>
+      </c>
+      <c r="D1">
+        <v>1494</v>
+      </c>
+      <c r="E1">
+        <v>1235</v>
+      </c>
+      <c r="F1">
+        <v>1400</v>
+      </c>
+      <c r="G1">
+        <v>1467</v>
+      </c>
+      <c r="H1">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2">
-        <v>2057</v>
+        <v>1416</v>
       </c>
       <c r="C2">
-        <v>3317</v>
+        <v>2308</v>
+      </c>
+      <c r="D2">
+        <v>2635</v>
+      </c>
+      <c r="E2">
+        <v>3363</v>
+      </c>
+      <c r="F2">
+        <v>2655</v>
+      </c>
+      <c r="G2">
+        <v>2779</v>
+      </c>
+      <c r="H2">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>1416</v>
+      </c>
+      <c r="C3">
+        <v>2308</v>
+      </c>
+      <c r="D3">
+        <v>2635</v>
+      </c>
+      <c r="E3">
+        <v>3363</v>
+      </c>
+      <c r="F3">
+        <v>2655</v>
+      </c>
+      <c r="G3">
+        <v>2779</v>
+      </c>
+      <c r="H3">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4">
+        <v>1416</v>
+      </c>
+      <c r="C4">
+        <v>2308</v>
+      </c>
+      <c r="D4">
+        <v>2635</v>
+      </c>
+      <c r="E4">
+        <v>3363</v>
+      </c>
+      <c r="F4">
+        <v>2655</v>
+      </c>
+      <c r="G4">
+        <v>2779</v>
+      </c>
+      <c r="H4">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
+        <v>1416</v>
+      </c>
+      <c r="C5">
+        <v>2308</v>
+      </c>
+      <c r="D5">
+        <v>2635</v>
+      </c>
+      <c r="E5">
+        <v>3363</v>
+      </c>
+      <c r="F5">
+        <v>2655</v>
+      </c>
+      <c r="G5">
+        <v>2779</v>
+      </c>
+      <c r="H5">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>1416</v>
+      </c>
+      <c r="C6">
+        <v>2308</v>
+      </c>
+      <c r="D6">
+        <v>2635</v>
+      </c>
+      <c r="E6">
+        <v>3363</v>
+      </c>
+      <c r="F6">
+        <v>2655</v>
+      </c>
+      <c r="G6">
+        <v>2779</v>
+      </c>
+      <c r="H6">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>1416</v>
+      </c>
+      <c r="C7">
+        <v>2308</v>
+      </c>
+      <c r="D7">
+        <v>2635</v>
+      </c>
+      <c r="E7">
+        <v>3363</v>
+      </c>
+      <c r="F7">
+        <v>2655</v>
+      </c>
+      <c r="G7">
+        <v>2779</v>
+      </c>
+      <c r="H7">
+        <v>1775</v>
       </c>
     </row>
   </sheetData>
